--- a/Bao_cao/Thiết kế/Thiết kế chi tiết/MILKTEAMANAGEMENT_TLPT_02_Order.xlsx
+++ b/Bao_cao/Thiết kế/Thiết kế chi tiết/MILKTEAMANAGEMENT_TLPT_02_Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="826" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="826" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -4125,8 +4125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3762375" y="24717375"/>
-          <a:ext cx="746125" cy="971550"/>
+          <a:off x="3396615" y="24717375"/>
+          <a:ext cx="664845" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4190,8 +4190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4225925" y="26245820"/>
-          <a:ext cx="1407795" cy="647700"/>
+          <a:off x="3819525" y="26245820"/>
+          <a:ext cx="1262380" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -4247,8 +4247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1625600" y="24469725"/>
-          <a:ext cx="5466715" cy="2609850"/>
+          <a:off x="1463040" y="24469725"/>
+          <a:ext cx="4922520" cy="2609850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4306,8 +4306,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="406400" y="25146000"/>
-          <a:ext cx="1082675" cy="400050"/>
+          <a:off x="365760" y="25146000"/>
+          <a:ext cx="981075" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4416,8 +4416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1593850" y="25279350"/>
-          <a:ext cx="2073275" cy="0"/>
+          <a:off x="1451610" y="25279350"/>
+          <a:ext cx="1849755" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4473,8 +4473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5151120" y="25241250"/>
-          <a:ext cx="2070100" cy="0"/>
+          <a:off x="4647565" y="25241250"/>
+          <a:ext cx="1866900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4530,8 +4530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7281545" y="25584150"/>
-          <a:ext cx="984250" cy="400050"/>
+          <a:off x="6554470" y="25584150"/>
+          <a:ext cx="902970" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4629,8 +4629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7424420" y="24717375"/>
-          <a:ext cx="746125" cy="971550"/>
+          <a:off x="6697345" y="24717375"/>
+          <a:ext cx="664845" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4694,8 +4694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1689100" y="26283285"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="1526540" y="26283285"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -4751,8 +4751,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4980305" y="24912320"/>
-          <a:ext cx="917575" cy="1818640"/>
+          <a:off x="4444365" y="25001220"/>
+          <a:ext cx="916940" cy="1640205"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4812,8 +4812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952750" y="26268045"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="2668270" y="26268045"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -4870,8 +4870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3086100" y="25591770"/>
-          <a:ext cx="1064895" cy="287020"/>
+          <a:off x="2730500" y="25601930"/>
+          <a:ext cx="1064895" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4931,8 +4931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162425" y="22707600"/>
-          <a:ext cx="1407795" cy="647700"/>
+          <a:off x="3756025" y="22707600"/>
+          <a:ext cx="1270000" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5055,8 +5055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1625600" y="22745065"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="1463040" y="22745065"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5179,8 +5179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762625" y="22741890"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="5198110" y="22741890"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5303,8 +5303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2889250" y="22729825"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="2604770" y="22729825"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5427,8 +5427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2155190" y="23382605"/>
-          <a:ext cx="1705610" cy="1722755"/>
+          <a:off x="1860550" y="23474045"/>
+          <a:ext cx="1705610" cy="1539875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5488,8 +5488,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="2835910" y="23954105"/>
-          <a:ext cx="1719580" cy="565150"/>
+          <a:off x="2480310" y="23984585"/>
+          <a:ext cx="1719580" cy="504190"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5552,8 +5552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3852545" y="24008080"/>
-          <a:ext cx="1847215" cy="538480"/>
+          <a:off x="3377565" y="24036655"/>
+          <a:ext cx="1847215" cy="481965"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5613,8 +5613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="356870" y="24336375"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="336550" y="24336375"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5737,8 +5737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6985000" y="23211155"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="6298565" y="23211155"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5861,8 +5861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="332740" y="25699085"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="312420" y="25699085"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -5985,8 +5985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7265670" y="26153745"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="6544945" y="26153745"/>
+          <a:ext cx="936625" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -6109,8 +6109,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7259320" y="24011255"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="6544945" y="24011255"/>
+          <a:ext cx="930275" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -6233,8 +6233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="444500" y="23446105"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="403860" y="23446105"/>
+          <a:ext cx="942975" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -6357,8 +6357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441700" y="24166195"/>
-          <a:ext cx="1671320" cy="455295"/>
+          <a:off x="3108960" y="24166195"/>
+          <a:ext cx="1500505" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6427,8 +6427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4252595" y="25568275"/>
-          <a:ext cx="556260" cy="794385"/>
+          <a:off x="3825875" y="25588595"/>
+          <a:ext cx="556260" cy="753745"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6490,8 +6490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4474210" y="25333325"/>
-          <a:ext cx="2791460" cy="1143635"/>
+          <a:off x="4027170" y="25333325"/>
+          <a:ext cx="2517775" cy="1143635"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6553,8 +6553,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5826125" y="26280110"/>
-          <a:ext cx="1044575" cy="647700"/>
+          <a:off x="5261610" y="26280110"/>
+          <a:ext cx="922655" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -6610,8 +6610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4366260" y="24335105"/>
-          <a:ext cx="2893060" cy="763270"/>
+          <a:off x="3939540" y="24335105"/>
+          <a:ext cx="2605405" cy="763270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6673,8 +6673,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4375785" y="23535005"/>
-          <a:ext cx="2608580" cy="1509395"/>
+          <a:off x="3949065" y="23535005"/>
+          <a:ext cx="2348865" cy="1509395"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6736,8 +6736,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4366260" y="23389590"/>
-          <a:ext cx="1917065" cy="1591945"/>
+          <a:off x="3939540" y="23389590"/>
+          <a:ext cx="1718310" cy="1591945"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6797,8 +6797,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1487805" y="23769955"/>
-          <a:ext cx="2313305" cy="1211580"/>
+          <a:off x="1345565" y="23769955"/>
+          <a:ext cx="2089785" cy="1211580"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6861,8 +6861,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1400810" y="24660225"/>
-          <a:ext cx="2360295" cy="542925"/>
+          <a:off x="1278890" y="24660225"/>
+          <a:ext cx="2116455" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6924,8 +6924,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1376680" y="25468580"/>
-          <a:ext cx="2469515" cy="553720"/>
+          <a:off x="1254760" y="25468580"/>
+          <a:ext cx="2219960" cy="553720"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6987,8 +6987,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2212975" y="25576530"/>
-          <a:ext cx="1810385" cy="705485"/>
+          <a:off x="2009775" y="25576530"/>
+          <a:ext cx="1627505" cy="705485"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7051,8 +7051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="2244725"/>
-          <a:ext cx="5264150" cy="419100"/>
+          <a:off x="1760220" y="2240915"/>
+          <a:ext cx="4735830" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7104,7 +7104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="189230" y="1808480"/>
+          <a:off x="182880" y="1804670"/>
           <a:ext cx="8698865" cy="4546600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7145,15 +7145,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>92710</xdr:colOff>
+      <xdr:colOff>92075</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>29845</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7170,8 +7170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295910" y="1944370"/>
-          <a:ext cx="8471535" cy="4305300"/>
+          <a:off x="274955" y="1940560"/>
+          <a:ext cx="8573135" cy="4304665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7200,7 +7200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="812800" y="1371600"/>
+          <a:off x="731520" y="1371600"/>
           <a:ext cx="8674100" cy="4404995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7333,8 +7333,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="899160" y="1437640"/>
-          <a:ext cx="8491855" cy="4270375"/>
+          <a:off x="817880" y="1437640"/>
+          <a:ext cx="7638415" cy="4270375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7375,8 +7375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="852805" y="6387465"/>
-          <a:ext cx="8526780" cy="4271010"/>
+          <a:off x="771525" y="6387465"/>
+          <a:ext cx="7673340" cy="4271010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7404,7 +7404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="787400" y="6334760"/>
+          <a:off x="726440" y="6334760"/>
           <a:ext cx="8674100" cy="4404995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7537,8 +7537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="811530" y="11231880"/>
-          <a:ext cx="8584565" cy="4298315"/>
+          <a:off x="731520" y="11231880"/>
+          <a:ext cx="7729855" cy="4298315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7566,7 +7566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762635" y="11173460"/>
+          <a:off x="701675" y="11173460"/>
           <a:ext cx="8674100" cy="4404995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7698,8 +7698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2108200" y="1066800"/>
-          <a:ext cx="5949950" cy="5467350"/>
+          <a:off x="1905000" y="1059180"/>
+          <a:ext cx="5360670" cy="5345430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7766,7 +7766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7841,7 +7841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7916,7 +7916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7991,7 +7991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8066,7 +8066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8141,7 +8141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8216,7 +8216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8291,7 +8291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8366,7 +8366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8441,7 +8441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8516,7 +8516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8591,7 +8591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8666,7 +8666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8741,7 +8741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8816,7 +8816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8891,7 +8891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8966,7 +8966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9041,7 +9041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9116,7 +9116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9191,7 +9191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9266,7 +9266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9341,7 +9341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9416,7 +9416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9491,7 +9491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9566,7 +9566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9641,7 +9641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9716,7 +9716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9791,7 +9791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9866,7 +9866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9941,7 +9941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10016,7 +10016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10091,7 +10091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10166,7 +10166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10241,7 +10241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10316,7 +10316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10391,7 +10391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10466,7 +10466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10541,7 +10541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10616,7 +10616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10691,7 +10691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10766,7 +10766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10841,7 +10841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10916,7 +10916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10991,7 +10991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11066,7 +11066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11141,7 +11141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11216,7 +11216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11291,7 +11291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11366,7 +11366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11441,7 +11441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11516,7 +11516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11591,7 +11591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11666,7 +11666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11741,7 +11741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11816,7 +11816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11891,7 +11891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11966,7 +11966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12041,7 +12041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12116,7 +12116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12191,7 +12191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12266,7 +12266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12341,7 +12341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12416,7 +12416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12491,7 +12491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12566,7 +12566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12641,7 +12641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12716,7 +12716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12791,7 +12791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12866,7 +12866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12941,7 +12941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13016,7 +13016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13091,7 +13091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13166,7 +13166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13241,7 +13241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13316,7 +13316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13391,7 +13391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13466,7 +13466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13541,7 +13541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13616,7 +13616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13691,7 +13691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13766,7 +13766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13841,7 +13841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13916,7 +13916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13991,7 +13991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14066,7 +14066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14141,7 +14141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14216,7 +14216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14291,7 +14291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14366,7 +14366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14441,7 +14441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14516,7 +14516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14591,7 +14591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14666,7 +14666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14741,7 +14741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14816,7 +14816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14891,7 +14891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14966,7 +14966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15041,7 +15041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15116,7 +15116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15191,7 +15191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15266,7 +15266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15341,7 +15341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15416,7 +15416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15491,7 +15491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15566,7 +15566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15641,7 +15641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15716,7 +15716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15791,7 +15791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15866,7 +15866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15941,7 +15941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16016,7 +16016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16091,7 +16091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16166,7 +16166,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16241,7 +16241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16316,7 +16316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16391,7 +16391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16466,7 +16466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16541,7 +16541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16616,7 +16616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16691,7 +16691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16766,7 +16766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16841,7 +16841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16916,7 +16916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16991,7 +16991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17066,7 +17066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17141,7 +17141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17216,7 +17216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17291,7 +17291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17366,7 +17366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17441,7 +17441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17516,7 +17516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17591,7 +17591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17666,7 +17666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17741,7 +17741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17816,7 +17816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17891,7 +17891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17966,7 +17966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18041,7 +18041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18116,7 +18116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18191,7 +18191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18266,7 +18266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18341,7 +18341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18416,7 +18416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3889375" y="0"/>
+          <a:off x="3503295" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18491,7 +18491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18566,7 +18566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18641,7 +18641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18716,7 +18716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18791,7 +18791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18866,7 +18866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18941,7 +18941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19016,7 +19016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19091,7 +19091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="0"/>
+          <a:off x="3869055" y="0"/>
           <a:ext cx="47625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19166,8 +19166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5232400" y="1409700"/>
-          <a:ext cx="2159000" cy="962025"/>
+          <a:off x="4724400" y="1394460"/>
+          <a:ext cx="1935480" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -19232,8 +19232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914525" y="1504950"/>
-          <a:ext cx="552450" cy="428625"/>
+          <a:off x="1731645" y="1489710"/>
+          <a:ext cx="491490" cy="417195"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -19276,8 +19276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6073775" y="2609850"/>
-          <a:ext cx="438150" cy="1590675"/>
+          <a:off x="5484495" y="2567940"/>
+          <a:ext cx="377190" cy="1556385"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -19320,8 +19320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="4324350"/>
-          <a:ext cx="4838700" cy="533400"/>
+          <a:off x="2366010" y="4244340"/>
+          <a:ext cx="4351020" cy="521970"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -19386,8 +19386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="5029200"/>
-          <a:ext cx="434975" cy="552450"/>
+          <a:off x="5562600" y="4933950"/>
+          <a:ext cx="394335" cy="541020"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -19430,8 +19430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5232400" y="5695950"/>
-          <a:ext cx="2263775" cy="561975"/>
+          <a:off x="4724400" y="5585460"/>
+          <a:ext cx="2040255" cy="550545"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -19496,8 +19496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="3076575"/>
-          <a:ext cx="2159000" cy="514350"/>
+          <a:off x="2377440" y="3027045"/>
+          <a:ext cx="1943100" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -19562,8 +19562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="1409700"/>
-          <a:ext cx="2159000" cy="981075"/>
+          <a:off x="2346960" y="1394460"/>
+          <a:ext cx="1935480" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -19628,8 +19628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441700" y="2581275"/>
-          <a:ext cx="438150" cy="400050"/>
+          <a:off x="3108960" y="2539365"/>
+          <a:ext cx="384810" cy="392430"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -19672,8 +19672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441700" y="3686175"/>
-          <a:ext cx="438150" cy="542925"/>
+          <a:off x="3108960" y="3621405"/>
+          <a:ext cx="384810" cy="531495"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst>
@@ -19716,8 +19716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="346075" y="1066800"/>
-          <a:ext cx="1441450" cy="1333500"/>
+          <a:off x="325755" y="1059180"/>
+          <a:ext cx="1299210" cy="1306830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19777,8 +19777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7642225" y="2590800"/>
-          <a:ext cx="1762125" cy="2143125"/>
+          <a:off x="6890385" y="2548890"/>
+          <a:ext cx="1579245" cy="2097405"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -19914,8 +19914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8280400" y="1066800"/>
-          <a:ext cx="1327150" cy="1295400"/>
+          <a:off x="7467600" y="1059180"/>
+          <a:ext cx="1184910" cy="1268730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19975,8 +19975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7594600" y="1485900"/>
-          <a:ext cx="552450" cy="428625"/>
+          <a:off x="6842760" y="1470660"/>
+          <a:ext cx="491490" cy="417195"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -20021,8 +20021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10099675" y="200025"/>
-          <a:ext cx="987425" cy="533400"/>
+          <a:off x="9103995" y="200025"/>
+          <a:ext cx="885825" cy="529590"/>
         </a:xfrm>
         <a:prstGeom prst="bevel">
           <a:avLst>
@@ -20091,7 +20091,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="114300" y="76200"/>
-              <a:ext cx="1612900" cy="260350"/>
+              <a:ext cx="1450340" cy="260350"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -20459,7 +20459,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="22" width="2.66666666666667" style="112" customWidth="1"/>
-    <col min="23" max="23" width="7.43333333333333" style="112" customWidth="1"/>
+    <col min="23" max="23" width="7.43518518518519" style="112" customWidth="1"/>
     <col min="24" max="49" width="2.66666666666667" style="112" customWidth="1"/>
     <col min="50" max="59" width="3.16666666666667" style="112" customWidth="1"/>
     <col min="60" max="16384" width="9" style="112"/>
@@ -30104,8 +30104,8 @@
   <sheetPr/>
   <dimension ref="A1:BF134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="112" zoomScaleNormal="113" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="AB131" sqref="AB131"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="112" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="BD19" sqref="BD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -30351,7 +30351,7 @@
       <c r="AV4" s="227"/>
       <c r="AW4" s="254"/>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" ht="13.2" spans="1:49">
       <c r="A5" s="59"/>
       <c r="B5" s="60" t="s">
         <v>87</v>
@@ -43751,9 +43751,9 @@
       <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:49">
+    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:49">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -43820,7 +43820,7 @@
       <c r="AV1" s="38"/>
       <c r="AW1" s="44"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:49">
+    <row r="2" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:49">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -43983,7 +43983,7 @@
       <c r="AV4" s="10"/>
       <c r="AW4" s="47"/>
     </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:49">
+    <row r="5" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:49">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -45862,7 +45862,7 @@
       <c r="AV41" s="10"/>
       <c r="AW41" s="47"/>
     </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:49">
+    <row r="42" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:49">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
